--- a/doc/Task10/Product_Backlog.xlsx
+++ b/doc/Task10/Product_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -43,24 +43,12 @@
     <t>high</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -74,36 +62,6 @@
   </si>
   <si>
     <t>Effort Actual</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>UI, Controller</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
   </si>
   <si>
     <t>Effort Plan Original</t>
@@ -174,6 +132,75 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Datenbank erstellen</t>
+  </si>
+  <si>
+    <t>Datenbank konfigurieren</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Patient erfassen</t>
+  </si>
+  <si>
+    <t>Prozess Patient erfassen</t>
+  </si>
+  <si>
+    <t>UI, Controller,Datenbankanbindung</t>
+  </si>
+  <si>
+    <t>Patientensuche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patientensuche </t>
+  </si>
+  <si>
+    <t>UI,Controller</t>
+  </si>
+  <si>
+    <t>Patient editieren</t>
+  </si>
+  <si>
+    <t>Basisdaten von Patienten editieren</t>
+  </si>
+  <si>
+    <t>Patient löschen</t>
+  </si>
+  <si>
+    <t>Patientenakte löschen, beinhaltet auch dazugehörige Medikamente,Diagnosen, Kontakte und History löschen.</t>
+  </si>
+  <si>
+    <t>Patientendetails</t>
+  </si>
+  <si>
+    <t>Anzeige der Patientenakte (Medikamente, Diagnosen, Kontakte,History,Gefährudngsampel anzeigen)</t>
+  </si>
+  <si>
+    <t>Rajina</t>
+  </si>
+  <si>
+    <t>Stephan</t>
+  </si>
+  <si>
+    <t>kandr1</t>
+  </si>
+  <si>
+    <t>schea2</t>
+  </si>
+  <si>
+    <t>schne5</t>
+  </si>
+  <si>
+    <t>schas2</t>
   </si>
 </sst>
 </file>
@@ -560,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +604,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -587,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,12 +664,12 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -619,27 +678,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -648,21 +707,18 @@
         <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -671,18 +727,18 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -691,18 +747,18 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -711,18 +767,18 @@
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -731,18 +787,18 @@
         <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -751,12 +807,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(G2:G7)</f>
@@ -776,19 +832,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
@@ -803,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -812,66 +868,60 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -879,16 +929,22 @@
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -896,14 +952,8 @@
       <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -913,94 +963,122 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
       <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>SUM(I2:I7)</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1025,16 +1103,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">

--- a/doc/Task10/Product_Backlog.xlsx
+++ b/doc/Task10/Product_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="9315" activeTab="2"/>
+    <workbookView xWindow="396" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -201,6 +201,27 @@
   </si>
   <si>
     <t>schas2</t>
+  </si>
+  <si>
+    <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>ergänzen/überarbeiten</t>
+  </si>
+  <si>
+    <t>Elisa/Anna</t>
+  </si>
+  <si>
+    <t>Suche erweitern</t>
+  </si>
+  <si>
+    <t>Grid ergänzen, Navigation zu bearbeiten</t>
+  </si>
+  <si>
+    <t>Create auslagern</t>
+  </si>
+  <si>
+    <t>Patient erfassen auf eigene Seite, nicht in Suche</t>
   </si>
 </sst>
 </file>
@@ -593,13 +614,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -607,7 +628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -615,7 +636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -623,7 +644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -631,7 +652,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -648,23 +669,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -690,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -710,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -730,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -750,7 +771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -770,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -790,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -810,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F8" s="8" t="s">
         <v>33</v>
       </c>
@@ -832,29 +853,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -892,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -924,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -934,7 +955,7 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
@@ -956,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -966,7 +987,7 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E4" t="s">
@@ -988,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -998,7 +1019,7 @@
       <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
@@ -1020,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1052,12 +1073,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -1075,10 +1096,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Product Backlog'!_Toc447467359</f>
+        <v>Gefährdung des Patienten ändern</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
       <c r="I8">
-        <f>SUM(I2:I7)</f>
-        <v>47</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <f>C6</f>
+        <v>Patient löschen</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>D6</f>
+        <v>Patientenakte löschen, beinhaltet auch dazugehörige Medikamente,Diagnosen, Kontakte und History löschen.</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <f>'Product Backlog'!B7</f>
+        <v>Kontaktdaten des Patienten verwalten</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>'Product Backlog'!C7</f>
+        <v xml:space="preserve">Für jeden Patienten im System können Kontaktdaten eingetragen werden
+Diese Kontaktdaten können jeweils editiert und auch wieder gelöscht werden.
+</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1094,14 +1230,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1129,7 +1265,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/Task10/Product_Backlog.xlsx
+++ b/doc/Task10/Product_Backlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RajinaK\workspace\ch.bfh.bti7081.s2016.orange\doc\Task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="396" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="2"/>
   </bookViews>
@@ -18,12 +23,12 @@
     <definedName name="_Toc447467359" localSheetId="1">'Product Backlog'!$B$4</definedName>
     <definedName name="_Toc447467361" localSheetId="1">'Product Backlog'!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -218,16 +223,28 @@
     <t>Grid ergänzen, Navigation zu bearbeiten</t>
   </si>
   <si>
-    <t>Create auslagern</t>
-  </si>
-  <si>
-    <t>Patient erfassen auf eigene Seite, nicht in Suche</t>
+    <t>Patient erfassen auf eigene Seite, nicht in Suche. Übergang von speichern zu Startview. Layout gemäss Patientview</t>
+  </si>
+  <si>
+    <t>1. Login Seite, nachdem Login Übergang zum Startview</t>
+  </si>
+  <si>
+    <t>UI, Controller, DB erweitern</t>
+  </si>
+  <si>
+    <t>State Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create auslagern &amp; validierung </t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,14 +334,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,9 +382,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,17 +873,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
@@ -942,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -974,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1006,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1038,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1089,6 +1109,9 @@
       <c r="E7" t="s">
         <v>44</v>
       </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
       <c r="I7">
         <v>15</v>
       </c>
@@ -1107,11 +1130,23 @@
         <f>'Product Backlog'!_Toc447467359</f>
         <v>Gefährdung des Patienten ändern</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" t="s">
         <v>59</v>
       </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
       <c r="I8">
         <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1127,8 +1162,17 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
       <c r="I9">
         <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1147,11 +1191,20 @@
       <c r="F10" t="s">
         <v>52</v>
       </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
       <c r="I10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.2</v>
       </c>
@@ -1159,62 +1212,121 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
       </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
       <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
         <f>C6</f>
         <v>Patient löschen</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D13" s="7" t="str">
         <f>D6</f>
         <v>Patientenakte löschen, beinhaltet auch dazugehörige Medikamente,Diagnosen, Kontakte und History löschen.</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="I12">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C14" t="str">
         <f>'Product Backlog'!B7</f>
         <v>Kontaktdaten des Patienten verwalten</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D14" s="7" t="str">
         <f>'Product Backlog'!C7</f>
         <v xml:space="preserve">Für jeden Patienten im System können Kontaktdaten eingetragen werden
 Diese Kontaktdaten können jeweils editiert und auch wieder gelöscht werden.
 </v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="I13">
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14">
         <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Task10/Product_Backlog.xlsx
+++ b/doc/Task10/Product_Backlog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -239,6 +239,42 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>Patienten detailansicht</t>
+  </si>
+  <si>
+    <t>verbessern (Mobileansicht)</t>
+  </si>
+  <si>
+    <t>Refactoring code</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Comments, Benennung einheitlicht (English), allg. Konventionen</t>
+  </si>
+  <si>
+    <t>DB, UI</t>
+  </si>
+  <si>
+    <t>Findbugs</t>
+  </si>
+  <si>
+    <t>ausführen, resultat analysieren, gegebenenfalls korrigieren</t>
+  </si>
+  <si>
+    <t>Patienten suche</t>
+  </si>
+  <si>
+    <t>UI verbessern, Buttons direkt in der Tabelle</t>
   </si>
 </sst>
 </file>
@@ -689,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +784,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -788,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -848,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -873,10 +909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1146,7 +1182,7 @@
         <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1172,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1201,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1230,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1262,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1293,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,6 +1362,203 @@
         <v>6</v>
       </c>
       <c r="L14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
         <v>7</v>
       </c>
     </row>

--- a/doc/Task10/Product_Backlog.xlsx
+++ b/doc/Task10/Product_Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="2"/>
+    <workbookView xWindow="396" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>low</t>
-  </si>
-  <si>
-    <t>waiting</t>
   </si>
   <si>
     <t>Owner</t>
@@ -681,39 +678,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -725,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -755,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -772,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -784,7 +781,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -792,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -804,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
@@ -812,10 +809,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -824,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -832,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -844,7 +841,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -852,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -864,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -872,10 +869,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -884,12 +881,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(G2:G7)</f>
@@ -911,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -945,25 +942,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
@@ -977,19 +974,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -998,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1009,19 +1006,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
         <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -1030,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1041,19 +1038,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1062,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1073,19 +1070,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -1094,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1105,19 +1102,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1126,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1137,13 +1134,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1152,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1167,13 +1164,13 @@
         <v>Gefährdung des Patienten ändern</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -1182,7 +1179,7 @@
         <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1190,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -1208,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1219,16 +1216,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -1237,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1248,16 +1245,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -1266,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1277,19 +1274,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -1298,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1317,10 +1314,10 @@
         <v>Patientenakte löschen, beinhaltet auch dazugehörige Medikamente,Diagnosen, Kontakte und History löschen.</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
@@ -1329,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1350,10 +1347,10 @@
 </v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
@@ -1362,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1373,16 +1370,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>5</v>
@@ -1391,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1402,16 +1399,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
         <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
@@ -1420,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1431,16 +1428,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -1449,7 +1446,7 @@
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1460,16 +1457,16 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
@@ -1478,7 +1475,7 @@
         <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1486,16 +1483,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
@@ -1504,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1512,16 +1509,16 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -1530,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1541,16 +1538,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
@@ -1559,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1584,16 +1581,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
